--- a/data/s_vals/2022/young_danny.xlsx
+++ b/data/s_vals/2022/young_danny.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2846480661742272</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.992303795700884</v>
+        <v>1135.458372537421</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C3" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12556560802943</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.360717858554455</v>
+        <v>1396.304844062544</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.558731985919883</v>
+        <v>27.82738278199502</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/young_danny.xlsx
+++ b/data/s_vals/2022/young_danny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1135.458372537421</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1396.304844062544</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>27.82738278199502</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/young_danny.xlsx
+++ b/data/s_vals/2022/young_danny.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01293466051926884</v>
+        <v>0.01253208636536152</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1135.458372537421</v>
+        <v>2799.926432038638</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C3" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>261.3203778131603</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1396.304844062544</v>
+        <v>2989.088948466323</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82738278199502</v>
+        <v>24.14949828602258</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
